--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,466 +74,478 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.994+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772+/-0.0</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.998+/-0.006</t>
-  </si>
-  <si>
-    <t>0.731+/-0.021</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.985+/-0.005</t>
-  </si>
-  <si>
-    <t>0.638+/-0.018</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.677+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.993+/-0.001</t>
+  </si>
+  <si>
+    <t>0.77+/-0.0</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.996+/-0.008</t>
+  </si>
+  <si>
+    <t>0.722+/-0.023</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.986+/-0.007</t>
+  </si>
+  <si>
+    <t>0.645+/-0.023</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676+/-0.003</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.574+/-0.003</t>
+  </si>
+  <si>
+    <t>0.573+/-0.024</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.577+/-0.005</t>
+  </si>
+  <si>
+    <t>0.576+/-0.025</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.148+/-0.025</t>
+  </si>
+  <si>
+    <t>0.659+/-0.005</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.54+/-0.006</t>
+  </si>
+  <si>
+    <t>0.54+/-0.016</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.711+/-0.009</t>
+  </si>
+  <si>
+    <t>0.712+/-0.032</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.658+/-0.002</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.027</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.54+/-0.003</t>
+  </si>
+  <si>
+    <t>0.537+/-0.034</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.83+/-0.005</t>
+  </si>
+  <si>
+    <t>0.787+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.794+/-0.021</t>
+  </si>
+  <si>
+    <t>0.735+/-0.026</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.752+/-0.033</t>
+  </si>
+  <si>
+    <t>0.694+/-0.06</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>5.263+/-1.43</t>
+  </si>
+  <si>
+    <t>0.872+/-0.004</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.858+/-0.008</t>
+  </si>
+  <si>
+    <t>0.73+/-0.019</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.795+/-0.01</t>
+  </si>
+  <si>
+    <t>0.683+/-0.021</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.143+/-0.004</t>
+  </si>
+  <si>
+    <t>0.859+/-0.003</t>
+  </si>
+  <si>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.835+/-0.012</t>
+  </si>
+  <si>
+    <t>0.73+/-0.022</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>0.786+/-0.016</t>
+  </si>
+  <si>
+    <t>0.689+/-0.029</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.209+/-0.003</t>
+  </si>
+  <si>
+    <t>0.783+/-0.002</t>
+  </si>
+  <si>
+    <t>0.762+/-0.0</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.729+/-0.004</t>
+  </si>
+  <si>
+    <t>0.702+/-0.024</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.687+/-0.004</t>
+  </si>
+  <si>
+    <t>0.652+/-0.027</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>31.518+/-2.834</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.998+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.686+/-0.028</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.992+/-0.0</t>
+  </si>
+  <si>
+    <t>0.412+/-0.035</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.039+/-0.004</t>
+  </si>
+  <si>
+    <t>0.805+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.634+/-0.017</t>
+  </si>
+  <si>
+    <t>0.63+/-0.103</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.047+/-0.004</t>
+  </si>
+  <si>
+    <t>0.046+/-0.009</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.045+/-0.005</t>
+  </si>
+  <si>
+    <t>0.785+/-0.002</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.354+/-0.019</t>
+  </si>
+  <si>
+    <t>0.342+/-0.042</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.102+/-0.011</t>
+  </si>
+  <si>
+    <t>0.097+/-0.008</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.882+/-0.004</t>
+  </si>
+  <si>
+    <t>0.862+/-0.0</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.775+/-0.018</t>
+  </si>
+  <si>
+    <t>0.708+/-0.052</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.576+/-0.026</t>
+  </si>
+  <si>
+    <t>0.519+/-0.036</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>3.685+/-1.012</t>
+  </si>
+  <si>
+    <t>0.907+/-0.004</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.81+/-0.017</t>
+  </si>
+  <si>
+    <t>0.635+/-0.048</t>
   </si>
   <si>
     <t>0.684</t>
   </si>
   <si>
-    <t>0.576+/-0.003</t>
-  </si>
-  <si>
-    <t>0.575+/-0.024</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.581+/-0.004</t>
-  </si>
-  <si>
-    <t>0.579+/-0.026</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.189+/-0.016</t>
-  </si>
-  <si>
-    <t>0.66+/-0.005</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.541+/-0.005</t>
-  </si>
-  <si>
-    <t>0.54+/-0.016</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.714+/-0.01</t>
-  </si>
-  <si>
-    <t>0.713+/-0.031</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.661+/-0.001</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.556+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.025</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.549+/-0.004</t>
-  </si>
-  <si>
-    <t>0.549+/-0.033</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.835+/-0.005</t>
-  </si>
-  <si>
-    <t>0.793+/-0.0</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>0.802+/-0.018</t>
-  </si>
-  <si>
-    <t>0.744+/-0.02</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.752+/-0.02</t>
-  </si>
-  <si>
-    <t>0.697+/-0.03</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>5.107+/-1.0</t>
-  </si>
-  <si>
-    <t>0.871+/-0.004</t>
-  </si>
-  <si>
-    <t>0.79+/-0.0</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.852+/-0.016</t>
-  </si>
-  <si>
-    <t>0.737+/-0.014</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.803+/-0.018</t>
-  </si>
-  <si>
-    <t>0.698+/-0.026</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.16+/-0.029</t>
-  </si>
-  <si>
-    <t>0.853+/-0.007</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.822+/-0.023</t>
-  </si>
-  <si>
-    <t>0.726+/-0.019</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.785+/-0.03</t>
-  </si>
-  <si>
-    <t>0.698+/-0.035</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.218+/-0.002</t>
-  </si>
-  <si>
-    <t>0.785+/-0.002</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.731+/-0.003</t>
-  </si>
-  <si>
-    <t>0.704+/-0.022</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.688+/-0.003</t>
-  </si>
-  <si>
-    <t>0.65+/-0.029</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>36.988+/-3.756</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.84+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.686+/-0.039</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
-    <t>0.992+/-0.0</t>
-  </si>
-  <si>
-    <t>0.359+/-0.037</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.051+/-0.007</t>
-  </si>
-  <si>
-    <t>0.806+/-0.001</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.633+/-0.016</t>
-  </si>
-  <si>
-    <t>0.631+/-0.107</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.049+/-0.004</t>
-  </si>
-  <si>
-    <t>0.05+/-0.011</t>
-  </si>
-  <si>
-    <t>0.051</t>
-  </si>
-  <si>
-    <t>0.065+/-0.007</t>
-  </si>
-  <si>
-    <t>0.784+/-0.002</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.358+/-0.018</t>
-  </si>
-  <si>
-    <t>0.347+/-0.043</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.115+/-0.012</t>
-  </si>
-  <si>
-    <t>0.109+/-0.011</t>
-  </si>
-  <si>
-    <t>0.145</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.801+/-0.001</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.295+/-0.228</t>
-  </si>
-  <si>
-    <t>0.077+/-0.13</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.006+/-0.008</t>
-  </si>
-  <si>
-    <t>0.002+/-0.004</t>
-  </si>
-  <si>
-    <t>0.888+/-0.005</t>
-  </si>
-  <si>
-    <t>0.864+/-0.0</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.778+/-0.028</t>
-  </si>
-  <si>
-    <t>0.705+/-0.048</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.611+/-0.021</t>
-  </si>
-  <si>
-    <t>0.546+/-0.052</t>
-  </si>
-  <si>
-    <t>4.46+/-1.14</t>
-  </si>
-  <si>
-    <t>0.91+/-0.004</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.809+/-0.028</t>
-  </si>
-  <si>
-    <t>0.631+/-0.051</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.715+/-0.03</t>
-  </si>
-  <si>
-    <t>0.557+/-0.033</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.098+/-0.009</t>
-  </si>
-  <si>
-    <t>0.9+/-0.004</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.774+/-0.013</t>
-  </si>
-  <si>
-    <t>0.624+/-0.042</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.701+/-0.033</t>
-  </si>
-  <si>
-    <t>0.575+/-0.04</t>
-  </si>
-  <si>
-    <t>0.142+/-0.019</t>
-  </si>
-  <si>
-    <t>0.865+/-0.001</t>
-  </si>
-  <si>
-    <t>0.855+/-0.0</t>
-  </si>
-  <si>
-    <t>0.777+/-0.005</t>
-  </si>
-  <si>
-    <t>0.741+/-0.043</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.452+/-0.006</t>
-  </si>
-  <si>
-    <t>0.418+/-0.024</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>19.29+/-1.699</t>
+    <t>0.695+/-0.031</t>
+  </si>
+  <si>
+    <t>0.555+/-0.039</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.08+/-0.01</t>
+  </si>
+  <si>
+    <t>0.899+/-0.003</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.786+/-0.015</t>
+  </si>
+  <si>
+    <t>0.638+/-0.039</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.677+/-0.028</t>
+  </si>
+  <si>
+    <t>0.556+/-0.021</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.124+/-0.013</t>
+  </si>
+  <si>
+    <t>0.866+/-0.001</t>
+  </si>
+  <si>
+    <t>0.857+/-0.0</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.767+/-0.004</t>
+  </si>
+  <si>
+    <t>0.738+/-0.042</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.467+/-0.005</t>
+  </si>
+  <si>
+    <t>0.436+/-0.023</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>20.819+/-1.87</t>
   </si>
 </sst>
 </file>
@@ -934,28 +946,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.6189445196211096</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -963,31 +975,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.6189445196211096</v>
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -995,31 +1007,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1027,31 +1039,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1059,31 +1071,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1091,31 +1103,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1123,31 +1135,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0.6189445196211096</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1155,31 +1167,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0.6189445196211096</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1187,31 +1199,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1219,31 +1231,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1293,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2">
-        <v>0.8014433919711321</v>
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1325,31 +1337,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3">
-        <v>0.8014433919711321</v>
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1357,31 +1369,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>159</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1389,31 +1401,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1421,31 +1433,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1453,31 +1465,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1485,31 +1497,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8">
-        <v>0.8014433919711321</v>
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1517,31 +1529,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9">
-        <v>0.8014433919711321</v>
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1549,31 +1561,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1581,31 +1593,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -92,241 +92,235 @@
     <t>0.993+/-0.001</t>
   </si>
   <si>
-    <t>0.77+/-0.0</t>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.994+/-0.01</t>
+  </si>
+  <si>
+    <t>0.722+/-0.022</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.988+/-0.008</t>
+  </si>
+  <si>
+    <t>0.648+/-0.023</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.573+/-0.003</t>
+  </si>
+  <si>
+    <t>0.572+/-0.028</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.575+/-0.005</t>
+  </si>
+  <si>
+    <t>0.573+/-0.028</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.103+/-0.012</t>
+  </si>
+  <si>
+    <t>0.662+/-0.004</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.545+/-0.004</t>
+  </si>
+  <si>
+    <t>0.544+/-0.019</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.689+/-0.011</t>
+  </si>
+  <si>
+    <t>0.687+/-0.031</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.657+/-0.001</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.55+/-0.002</t>
+  </si>
+  <si>
+    <t>0.55+/-0.029</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.544+/-0.003</t>
+  </si>
+  <si>
+    <t>0.544+/-0.033</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.827+/-0.004</t>
+  </si>
+  <si>
+    <t>0.788+/-0.0</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.776+/-0.019</t>
+  </si>
+  <si>
+    <t>0.729+/-0.023</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.768+/-0.031</t>
+  </si>
+  <si>
+    <t>0.708+/-0.039</t>
+  </si>
+  <si>
+    <t>7.124+/-1.75</t>
+  </si>
+  <si>
+    <t>0.87+/-0.005</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.858+/-0.009</t>
+  </si>
+  <si>
+    <t>0.732+/-0.021</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.791+/-0.008</t>
+  </si>
+  <si>
+    <t>0.681+/-0.022</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.133+/-0.008</t>
+  </si>
+  <si>
+    <t>0.857+/-0.003</t>
+  </si>
+  <si>
+    <t>0.785+/-0.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.837+/-0.012</t>
+  </si>
+  <si>
+    <t>0.733+/-0.023</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>0.778+/-0.018</t>
+  </si>
+  <si>
+    <t>0.688+/-0.032</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.202+/-0.006</t>
+  </si>
+  <si>
+    <t>0.784+/-0.002</t>
+  </si>
+  <si>
+    <t>0.762+/-0.0</t>
   </si>
   <si>
     <t>0.765</t>
   </si>
   <si>
-    <t>0.996+/-0.008</t>
-  </si>
-  <si>
-    <t>0.722+/-0.023</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.986+/-0.007</t>
-  </si>
-  <si>
-    <t>0.645+/-0.023</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676+/-0.003</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.574+/-0.003</t>
-  </si>
-  <si>
-    <t>0.573+/-0.024</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.577+/-0.005</t>
-  </si>
-  <si>
-    <t>0.576+/-0.025</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.148+/-0.025</t>
-  </si>
-  <si>
-    <t>0.659+/-0.005</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.54+/-0.006</t>
-  </si>
-  <si>
-    <t>0.54+/-0.016</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.711+/-0.009</t>
-  </si>
-  <si>
-    <t>0.712+/-0.032</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.658+/-0.002</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.551+/-0.027</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.54+/-0.003</t>
-  </si>
-  <si>
-    <t>0.537+/-0.034</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.83+/-0.005</t>
-  </si>
-  <si>
-    <t>0.787+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.794+/-0.021</t>
-  </si>
-  <si>
-    <t>0.735+/-0.026</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.752+/-0.033</t>
-  </si>
-  <si>
-    <t>0.694+/-0.06</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>5.263+/-1.43</t>
-  </si>
-  <si>
-    <t>0.872+/-0.004</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.858+/-0.008</t>
-  </si>
-  <si>
-    <t>0.73+/-0.019</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.795+/-0.01</t>
-  </si>
-  <si>
-    <t>0.683+/-0.021</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.143+/-0.004</t>
-  </si>
-  <si>
-    <t>0.859+/-0.003</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.835+/-0.012</t>
-  </si>
-  <si>
-    <t>0.73+/-0.022</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.786+/-0.016</t>
-  </si>
-  <si>
-    <t>0.689+/-0.029</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.209+/-0.003</t>
-  </si>
-  <si>
-    <t>0.783+/-0.002</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.729+/-0.004</t>
-  </si>
-  <si>
-    <t>0.702+/-0.024</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>0.687+/-0.004</t>
-  </si>
-  <si>
-    <t>0.652+/-0.027</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>31.518+/-2.834</t>
+    <t>0.728+/-0.003</t>
+  </si>
+  <si>
+    <t>0.701+/-0.024</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.689+/-0.004</t>
+  </si>
+  <si>
+    <t>0.656+/-0.027</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>41.907+/-4.011</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -338,31 +332,28 @@
     <t>0.998+/-0.0</t>
   </si>
   <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849</t>
+    <t>0.841+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.686+/-0.028</t>
-  </si>
-  <si>
-    <t>0.691</t>
+    <t>0.686+/-0.042</t>
+  </si>
+  <si>
+    <t>0.699</t>
   </si>
   <si>
     <t>0.992+/-0.0</t>
   </si>
   <si>
-    <t>0.412+/-0.035</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.039+/-0.004</t>
+    <t>0.365+/-0.028</t>
+  </si>
+  <si>
+    <t>0.402</t>
   </si>
   <si>
     <t>0.805+/-0.001</t>
@@ -374,121 +365,115 @@
     <t>0.803</t>
   </si>
   <si>
-    <t>0.634+/-0.017</t>
-  </si>
-  <si>
-    <t>0.63+/-0.103</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.047+/-0.004</t>
-  </si>
-  <si>
-    <t>0.046+/-0.009</t>
+    <t>0.624+/-0.014</t>
+  </si>
+  <si>
+    <t>0.613+/-0.1</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.049+/-0.004</t>
+  </si>
+  <si>
+    <t>0.047+/-0.011</t>
   </si>
   <si>
     <t>0.049</t>
   </si>
   <si>
-    <t>0.045+/-0.005</t>
-  </si>
-  <si>
-    <t>0.785+/-0.002</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>0.354+/-0.019</t>
-  </si>
-  <si>
-    <t>0.342+/-0.042</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.102+/-0.011</t>
-  </si>
-  <si>
-    <t>0.097+/-0.008</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.882+/-0.004</t>
-  </si>
-  <si>
-    <t>0.862+/-0.0</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.775+/-0.018</t>
-  </si>
-  <si>
-    <t>0.708+/-0.052</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.576+/-0.026</t>
-  </si>
-  <si>
-    <t>0.519+/-0.036</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>3.685+/-1.012</t>
-  </si>
-  <si>
-    <t>0.907+/-0.004</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>0.81+/-0.017</t>
-  </si>
-  <si>
-    <t>0.635+/-0.048</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.695+/-0.031</t>
-  </si>
-  <si>
-    <t>0.555+/-0.039</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.08+/-0.01</t>
-  </si>
-  <si>
-    <t>0.899+/-0.003</t>
+    <t>0.148+/-0.013</t>
+  </si>
+  <si>
+    <t>0.782+/-0.003</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.384+/-0.019</t>
+  </si>
+  <si>
+    <t>0.371+/-0.051</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.163+/-0.02</t>
+  </si>
+  <si>
+    <t>0.154+/-0.022</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.796+/-0.003</t>
+  </si>
+  <si>
+    <t>0.795+/-0.0</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.331+/-0.063</t>
+  </si>
+  <si>
+    <t>0.287+/-0.143</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.03+/-0.015</t>
+  </si>
+  <si>
+    <t>0.025+/-0.016</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.012+/-0.003</t>
+  </si>
+  <si>
+    <t>0.886+/-0.005</t>
+  </si>
+  <si>
+    <t>0.863+/-0.0</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.77+/-0.032</t>
+  </si>
+  <si>
+    <t>0.702+/-0.049</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.611+/-0.038</t>
+  </si>
+  <si>
+    <t>0.549+/-0.054</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>8.428+/-2.179</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
   </si>
   <si>
     <t>0.849+/-0.0</t>
@@ -497,55 +482,79 @@
     <t>0.861</t>
   </si>
   <si>
-    <t>0.786+/-0.015</t>
-  </si>
-  <si>
-    <t>0.638+/-0.039</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.677+/-0.028</t>
-  </si>
-  <si>
-    <t>0.556+/-0.021</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.124+/-0.013</t>
-  </si>
-  <si>
-    <t>0.866+/-0.001</t>
-  </si>
-  <si>
-    <t>0.857+/-0.0</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.767+/-0.004</t>
-  </si>
-  <si>
-    <t>0.738+/-0.042</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.467+/-0.005</t>
-  </si>
-  <si>
-    <t>0.436+/-0.023</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>20.819+/-1.87</t>
+    <t>0.834+/-0.026</t>
+  </si>
+  <si>
+    <t>0.637+/-0.043</t>
+  </si>
+  <si>
+    <t>0.717+/-0.027</t>
+  </si>
+  <si>
+    <t>0.561+/-0.053</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.139+/-0.007</t>
+  </si>
+  <si>
+    <t>0.905+/-0.004</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.792+/-0.021</t>
+  </si>
+  <si>
+    <t>0.63+/-0.035</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.709+/-0.024</t>
+  </si>
+  <si>
+    <t>0.586+/-0.056</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.179+/-0.005</t>
+  </si>
+  <si>
+    <t>0.864+/-0.001</t>
+  </si>
+  <si>
+    <t>0.854+/-0.0</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.784+/-0.003</t>
+  </si>
+  <si>
+    <t>0.75+/-0.041</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.432+/-0.009</t>
+  </si>
+  <si>
+    <t>0.401+/-0.019</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>31.685+/-3.012</t>
   </si>
 </sst>
 </file>
@@ -955,19 +964,19 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -987,19 +996,19 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1019,19 +1028,19 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1051,19 +1060,19 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1083,19 +1092,19 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1115,19 +1124,19 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1147,19 +1156,19 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1179,19 +1188,19 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1208,22 +1217,22 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1240,22 +1249,22 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1305,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1337,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1369,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1404,28 +1413,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1436,28 +1445,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1468,28 +1477,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1500,28 +1509,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1532,28 +1541,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1564,28 +1573,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1593,31 +1602,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
